--- a/biology/Botanique/Famille_Hennessy/Famille_Hennessy.xlsx
+++ b/biology/Botanique/Famille_Hennessy/Famille_Hennessy.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille Hennessy est une famille irlandaise d'origine noble, établie en France en Charente au milieu du XVIIIe siècle pour échapper à l'oppression anglaise, comme de nombreuses familles catholiques. Au XXIe siècle, elle compte une branche française et une branche britannique. Une autre branche d'abord installée à Ostende appartint également à la noblesse belge[1]Devenue bruxelloise, elle a dirigé les Papeteries de La Hulpe en Brabant wallon[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille Hennessy est une famille irlandaise d'origine noble, établie en France en Charente au milieu du XVIIIe siècle pour échapper à l'oppression anglaise, comme de nombreuses familles catholiques. Au XXIe siècle, elle compte une branche française et une branche britannique. Une autre branche d'abord installée à Ostende appartint également à la noblesse belgeDevenue bruxelloise, elle a dirigé les Papeteries de La Hulpe en Brabant wallon.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Richard Hennessy naquit en 1724 à Cill a Mhuilinn (Killavullen), petit village dans le comté de Cork en Irlande, au sein d’une famille de la petite noblesse irlandaise descendant de sir Richard Nagle. Fils de James Hennessy, esq. de Ballymacmoy, et de Catherine Barrett, il quitta à 19 ans le comté de Cork pour échapper à l'oppression anglaise, à l’instar de milliers de jeunes catholiques de son pays. Il s’engagea dans la brigade irlandaise du roi de France et devint officier au régiment de Clare, au service de Louis XV[3]. C’est peu après la bataille de Fontenoy, en 1745, qu’il découvrit la Charente. Par la suite, il connut divers déboires, et les vingt années qui précédèrent son investissement dans le négoce de l'eau-de-vie de Cognac s'apparentent à « un catalogue de frustrations et d'échecs »[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Richard Hennessy naquit en 1724 à Cill a Mhuilinn (Killavullen), petit village dans le comté de Cork en Irlande, au sein d’une famille de la petite noblesse irlandaise descendant de sir Richard Nagle. Fils de James Hennessy, esq. de Ballymacmoy, et de Catherine Barrett, il quitta à 19 ans le comté de Cork pour échapper à l'oppression anglaise, à l’instar de milliers de jeunes catholiques de son pays. Il s’engagea dans la brigade irlandaise du roi de France et devint officier au régiment de Clare, au service de Louis XV. C’est peu après la bataille de Fontenoy, en 1745, qu’il découvrit la Charente. Par la suite, il connut divers déboires, et les vingt années qui précédèrent son investissement dans le négoce de l'eau-de-vie de Cognac s'apparentent à « un catalogue de frustrations et d'échecs ».
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Liens de filiation entre les personnalités notoires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Richard Hennessy (1724-1800), officier au régiment de Clare puis négociant jacobite, fondateur de l'entreprise de cognac. Il épouse Hélène Barett.
@@ -592,10 +608,12 @@
           <t>Demeures</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Château de Bagnolet (Cognac, Charente)
-Château de Saint-Brice (Saint-Brice, Charente)[5]</t>
+Château de Saint-Brice (Saint-Brice, Charente)</t>
         </is>
       </c>
     </row>
